--- a/_CIPW/QAPF_count_non_normalized.xlsx
+++ b/_CIPW/QAPF_count_non_normalized.xlsx
@@ -459,7 +459,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzonite</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -469,7 +469,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>monzonite</t>
+          <t>diorite gabbro anorthosite</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -479,7 +479,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>diorite gabbro anorthosite</t>
+          <t>quartz-rich granitoid</t>
         </is>
       </c>
       <c r="B12" t="n">

--- a/_CIPW/QAPF_count_non_normalized.xlsx
+++ b/_CIPW/QAPF_count_non_normalized.xlsx
@@ -459,7 +459,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>monzonite</t>
+          <t>quartz-rich granitoid</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -479,7 +479,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzonite</t>
         </is>
       </c>
       <c r="B12" t="n">
